--- a/docs/Dataset Definition.xlsx
+++ b/docs/Dataset Definition.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasholzer/Repositories/Interest Validator/Sample-Data-Generator/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0CE030-2572-FD4F-AB2E-65907ECF52D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF365B-80CB-0546-A5AA-15955FBFBF71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datensatzdefinition DE" sheetId="1" r:id="rId1"/>
     <sheet name="Datendefinition EN" sheetId="13" r:id="rId2"/>
-    <sheet name="Example File" sheetId="11" r:id="rId3"/>
-    <sheet name="Example Parameters" sheetId="14" r:id="rId4"/>
+    <sheet name="Example File (Previous)" sheetId="11" r:id="rId3"/>
+    <sheet name="Example File (Current)" sheetId="15" r:id="rId4"/>
+    <sheet name="Example Parameters" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="129">
   <si>
     <t>Unicode String</t>
   </si>
@@ -273,9 +274,6 @@
     <t>de-DE</t>
   </si>
   <si>
-    <t>Datenfelder der Datensätze (Vom Mandanten mitgeliefert)</t>
-  </si>
-  <si>
     <t>Definiert das Nummerformat für den Datensatz nach BCP 47. Wenn nicht angegeben wird Standart der Währung benutzt</t>
   </si>
   <si>
@@ -375,9 +373,6 @@
     <t>Seperator</t>
   </si>
   <si>
-    <t>Reporting Date</t>
-  </si>
-  <si>
     <t>DD.MM.YY</t>
   </si>
   <si>
@@ -400,6 +395,33 @@
   </si>
   <si>
     <t>Währungscode nach ISO 4217. Werte werden nach derzeitigem Wechselkurs Umgerechnet, siehe (4)</t>
+  </si>
+  <si>
+    <t>Datenfelder der Datensätze (Vom Mandanten mitgeliefert, Vorjahr und Laufendes Jahr)</t>
+  </si>
+  <si>
+    <t>Stichtag des Datensatzes VJ</t>
+  </si>
+  <si>
+    <t>Stichtag des Datensatzes LJ</t>
+  </si>
+  <si>
+    <t>Stichtag VJ</t>
+  </si>
+  <si>
+    <t>Stichtag LJ</t>
+  </si>
+  <si>
+    <t>Muss nach Stichtag VJ und vor Stichtag LJ sein</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Previous Reporting Date</t>
+  </si>
+  <si>
+    <t>Current Reporting Date</t>
   </si>
 </sst>
 </file>
@@ -410,9 +432,16 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -537,44 +566,48 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -927,9 +960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,12 +1007,12 @@
     </row>
     <row r="4" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>25</v>
@@ -1043,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
@@ -1061,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -1085,7 +1118,9 @@
         <v>22</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1135,7 @@
     </row>
     <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>21</v>
@@ -1126,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
@@ -1172,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
@@ -1192,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -1212,7 +1247,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
@@ -1232,7 +1267,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -1252,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
@@ -1277,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
@@ -1290,11 +1325,11 @@
         <v>68</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1317,7 +1352,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1325,7 +1360,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
@@ -1340,7 +1375,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -1353,7 +1388,7 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1361,11 +1396,9 @@
         <v>42</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1408,10 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>75</v>
+        <v>123</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1383,11 +1419,9 @@
         <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1431,10 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>75</v>
+        <v>124</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1405,7 +1442,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>13</v>
@@ -1428,7 +1465,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>13</v>
@@ -1453,7 +1490,7 @@
         <v>45</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>13</v>
@@ -1476,7 +1513,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
@@ -1490,10 +1527,10 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -1501,7 +1538,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
@@ -1513,10 +1550,10 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -1532,10 +1569,10 @@
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
@@ -1553,6 +1590,29 @@
         <v>39</v>
       </c>
     </row>
+    <row r="34" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>63</v>
@@ -1570,12 +1630,12 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1659,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1672,7 @@
   <dimension ref="B2:R1048576"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1640,10 +1700,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
@@ -1652,34 +1712,34 @@
         <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -1723,7 +1783,7 @@
         <v>43115</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>76</v>
@@ -1776,7 +1836,7 @@
         <v>43130</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>76</v>
@@ -1829,7 +1889,7 @@
         <v>43115</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>76</v>
@@ -1882,7 +1942,7 @@
         <v>43115</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>76</v>
@@ -1935,7 +1995,7 @@
         <v>43115</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>76</v>
@@ -1988,7 +2048,7 @@
         <v>43115</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>76</v>
@@ -2041,7 +2101,7 @@
         <v>43115</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>76</v>
@@ -2094,7 +2154,7 @@
         <v>46024</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>76</v>
@@ -2147,7 +2207,7 @@
         <v>43115</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>76</v>
@@ -2200,16 +2260,16 @@
         <v>43115</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -2253,16 +2313,16 @@
         <v>43115</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -2306,16 +2366,16 @@
         <v>46501</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1048576" spans="9:9" x14ac:dyDescent="0.2">
@@ -2331,11 +2391,733 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA196785-F65F-8843-9103-1E1A8B149C66}">
+  <dimension ref="B2:R1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="14">
+        <v>12345678933</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42736</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43830</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1250.43</v>
+      </c>
+      <c r="I3" s="1">
+        <v>123.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N3" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="14">
+        <v>12345678934</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42535</v>
+      </c>
+      <c r="G4" s="1">
+        <v>46022</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43130</v>
+      </c>
+      <c r="N4" s="1">
+        <v>43130</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="14">
+        <v>12345678935</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>150000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42445</v>
+      </c>
+      <c r="G5" s="1">
+        <v>46022</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80256</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N5" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="14">
+        <v>12345678936</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42632</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44285</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43123</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N6" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
+        <v>12345678937</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41030</v>
+      </c>
+      <c r="G7" s="1">
+        <v>46022</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1116187</v>
+      </c>
+      <c r="I7" s="1">
+        <v>22434</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N7" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="14">
+        <v>12345678938</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42387</v>
+      </c>
+      <c r="G8" s="1">
+        <v>46022</v>
+      </c>
+      <c r="H8" s="1">
+        <v>223687.65</v>
+      </c>
+      <c r="I8" s="1">
+        <v>11500</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N8" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
+        <v>12345678939</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>41150</v>
+      </c>
+      <c r="G9" s="1">
+        <v>46023</v>
+      </c>
+      <c r="H9" s="1">
+        <v>23134</v>
+      </c>
+      <c r="I9" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N9" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="14">
+        <v>12345678940</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42370</v>
+      </c>
+      <c r="G10" s="1">
+        <v>46024</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>43189</v>
+      </c>
+      <c r="N10" s="1">
+        <v>46024</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
+        <v>12345678941</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>41275</v>
+      </c>
+      <c r="G11" s="1">
+        <v>46498</v>
+      </c>
+      <c r="H11" s="1">
+        <v>80500000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1125000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N11" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="14">
+        <v>12345678942</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41471</v>
+      </c>
+      <c r="G12" s="1">
+        <v>46499</v>
+      </c>
+      <c r="H12" s="1">
+        <v>65378</v>
+      </c>
+      <c r="I12" s="1">
+        <v>21000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N12" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="14">
+        <v>12345678943</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42370</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45405</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8630</v>
+      </c>
+      <c r="I13" s="1">
+        <v>125</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1">
+        <v>43115</v>
+      </c>
+      <c r="N13" s="1">
+        <v>43115</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
+        <v>12345678944</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
+        <v>150000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>41275</v>
+      </c>
+      <c r="G14" s="1">
+        <v>46501</v>
+      </c>
+      <c r="H14" s="1">
+        <v>150000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>43281</v>
+      </c>
+      <c r="N14" s="1">
+        <v>46501</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1048576" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I1048576" s="1">
+        <f>SUM(I3:I1048575)</f>
+        <v>1201582.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8C4896-F27D-4644-A0AF-E27385930417}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2346,7 +3128,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="12">
         <v>43101</v>
@@ -2354,7 +3136,7 @@
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="12">
         <v>43465</v>
@@ -2362,7 +3144,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7" t="b">
         <v>1</v>
@@ -2370,7 +3152,7 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7" t="b">
         <v>1</v>
@@ -2378,7 +3160,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="13">
         <v>170000</v>
@@ -2386,18 +3168,26 @@
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B7" s="12">
-        <v>43480</v>
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="12">
+        <v>43465</v>
       </c>
     </row>
   </sheetData>
